--- a/data/trans_dic/Predimed_R2-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/Predimed_R2-Provincia-trans_dic.xlsx
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.8950548769237791</v>
+        <v>0.8950548769237789</v>
       </c>
       <c r="D4" s="5" t="n">
         <v>0.8996430879267576</v>
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.8564994413557762</v>
+        <v>0.8578442585707819</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.8703066787531526</v>
+        <v>0.8698637883285958</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.8737149843994295</v>
+        <v>0.8746640872708632</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.923262213985349</v>
+        <v>0.9248422064814208</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.9217548284821374</v>
+        <v>0.9235114624357149</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.914786575972018</v>
+        <v>0.9168582232351193</v>
       </c>
     </row>
     <row r="7">
@@ -619,10 +619,10 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.9329007975624106</v>
+        <v>0.9329007975624107</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.9228340577002814</v>
+        <v>0.9228340577002813</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>0.9276855565828545</v>
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.8943528558321104</v>
+        <v>0.8987176751390457</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.8997811744842744</v>
+        <v>0.89787309419453</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.9071949469583084</v>
+        <v>0.9071300348112105</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.9573259624378899</v>
+        <v>0.955729341848835</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.9418371397857507</v>
+        <v>0.9420349686820485</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.9431543283798142</v>
+        <v>0.9428930555696375</v>
       </c>
     </row>
     <row r="10">
@@ -677,10 +677,10 @@
         <v>0.7223528717246879</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.7021118207293553</v>
+        <v>0.7021118207293554</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.7116469794056589</v>
+        <v>0.7116469794056587</v>
       </c>
     </row>
     <row r="11">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.6728805120520822</v>
+        <v>0.6729268874199776</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.6657427299761032</v>
+        <v>0.660495253736843</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.6796660472828939</v>
+        <v>0.6789870878201044</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.7664626194542006</v>
+        <v>0.766009588161051</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.7439486660295069</v>
+        <v>0.742091250920638</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.7415915903690267</v>
+        <v>0.7447251549757318</v>
       </c>
     </row>
     <row r="13">
@@ -729,10 +729,10 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.5948136326773403</v>
+        <v>0.5948136326773402</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.6035903764799699</v>
+        <v>0.6035903764799698</v>
       </c>
       <c r="E13" s="5" t="n">
         <v>0.5995563865615249</v>
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.5221451547397248</v>
+        <v>0.5184318525797932</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.5505533558609441</v>
+        <v>0.5494150867312022</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.5551364352000058</v>
+        <v>0.5552381691239497</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.6677860534445291</v>
+        <v>0.6698397352245082</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.6547478614413608</v>
+        <v>0.6516728777778855</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.6420207124160474</v>
+        <v>0.6434443900962062</v>
       </c>
     </row>
     <row r="16">
@@ -784,13 +784,13 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.7962673484164662</v>
+        <v>0.7962673484164663</v>
       </c>
       <c r="D16" s="5" t="n">
         <v>0.6867733658337765</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.7385657345645467</v>
+        <v>0.7385657345645465</v>
       </c>
     </row>
     <row r="17">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.7401313997829586</v>
+        <v>0.7431953959408418</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.6361692268247496</v>
+        <v>0.6374405853224795</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.6990458268332287</v>
+        <v>0.7019782462340607</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.8414448771036436</v>
+        <v>0.8436784623029097</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.7355289004058911</v>
+        <v>0.7291884401614185</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.7685232184254934</v>
+        <v>0.7698762363730715</v>
       </c>
     </row>
     <row r="19">
@@ -839,7 +839,7 @@
         </is>
       </c>
       <c r="C19" s="5" t="n">
-        <v>0.8512409132739327</v>
+        <v>0.8512409132739328</v>
       </c>
       <c r="D19" s="5" t="n">
         <v>0.9043846470469785</v>
@@ -856,13 +856,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.8114177741198064</v>
+        <v>0.8111579871082297</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.8749431288162053</v>
+        <v>0.8724417752094177</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.8519362758186411</v>
+        <v>0.8476397655083601</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.8881694197496375</v>
+        <v>0.8869706641209616</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.9287763676744362</v>
+        <v>0.9302341318334462</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.8987130985465845</v>
+        <v>0.8969043028963797</v>
       </c>
     </row>
     <row r="22">
@@ -911,13 +911,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.6538347245577854</v>
+        <v>0.6484372623940298</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.6627062785403182</v>
+        <v>0.6649288490323845</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.66416316246639</v>
+        <v>0.6686255373433806</v>
       </c>
     </row>
     <row r="24">
@@ -928,13 +928,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.7315195785171429</v>
+        <v>0.7289887393653056</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.7268549221473094</v>
+        <v>0.7287258129900713</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.7171030429054656</v>
+        <v>0.7186947889207658</v>
       </c>
     </row>
     <row r="25">
@@ -952,10 +952,10 @@
         <v>0.9658708851488632</v>
       </c>
       <c r="D25" s="5" t="n">
-        <v>0.9460655753095508</v>
+        <v>0.9460655753095509</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>0.9557414088314975</v>
+        <v>0.9557414088314974</v>
       </c>
     </row>
     <row r="26">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.9517417025912019</v>
+        <v>0.9512362730222924</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.9302227803352303</v>
+        <v>0.9309989060001845</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.9454323388793237</v>
+        <v>0.9453199320513157</v>
       </c>
     </row>
     <row r="27">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.9778024018699124</v>
+        <v>0.9773795868043101</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.9592245818714337</v>
+        <v>0.9593376790703007</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.9652948995509183</v>
+        <v>0.9649012624173436</v>
       </c>
     </row>
     <row r="28">
@@ -1004,7 +1004,7 @@
         </is>
       </c>
       <c r="C28" s="5" t="n">
-        <v>0.8237950477475849</v>
+        <v>0.8237950477475852</v>
       </c>
       <c r="D28" s="5" t="n">
         <v>0.8108567051826348</v>
@@ -1021,13 +1021,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.8087175592093095</v>
+        <v>0.807156038308494</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.797847908864095</v>
+        <v>0.7983851629440524</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.8076219621890268</v>
+        <v>0.807555927287214</v>
       </c>
     </row>
     <row r="30">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.8380181547355652</v>
+        <v>0.8382317545281305</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.8217666624163923</v>
+        <v>0.8219756691606278</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.8260815349770394</v>
+        <v>0.8259318902956774</v>
       </c>
     </row>
     <row r="31">
@@ -1190,13 +1190,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>272031</v>
+        <v>272458</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>274652</v>
+        <v>274512</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>553227</v>
+        <v>553828</v>
       </c>
     </row>
     <row r="7">
@@ -1207,13 +1207,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>293235</v>
+        <v>293737</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>290888</v>
+        <v>291443</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>579233</v>
+        <v>580545</v>
       </c>
     </row>
     <row r="8">
@@ -1262,13 +1262,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>406636</v>
+        <v>408621</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>439777</v>
+        <v>438844</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>855875</v>
+        <v>855814</v>
       </c>
     </row>
     <row r="11">
@@ -1279,13 +1279,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>435268</v>
+        <v>434542</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>460332</v>
+        <v>460429</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>889800</v>
+        <v>889554</v>
       </c>
     </row>
     <row r="12">
@@ -1334,13 +1334,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>197879</v>
+        <v>197893</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>219818</v>
+        <v>218086</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>424290</v>
+        <v>423867</v>
       </c>
     </row>
     <row r="15">
@@ -1351,13 +1351,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>225400</v>
+        <v>225267</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>245641</v>
+        <v>245027</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>462948</v>
+        <v>464904</v>
       </c>
     </row>
     <row r="16">
@@ -1406,13 +1406,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>149622</v>
+        <v>148558</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>185481</v>
+        <v>185098</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>346101</v>
+        <v>346165</v>
       </c>
     </row>
     <row r="19">
@@ -1423,13 +1423,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>191356</v>
+        <v>191945</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>220585</v>
+        <v>219549</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>400270</v>
+        <v>401157</v>
       </c>
     </row>
     <row r="20">
@@ -1478,13 +1478,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>148209</v>
+        <v>148823</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>141926</v>
+        <v>142209</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>295934</v>
+        <v>297175</v>
       </c>
     </row>
     <row r="23">
@@ -1495,13 +1495,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>168497</v>
+        <v>168944</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>164092</v>
+        <v>162678</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>325347</v>
+        <v>325919</v>
       </c>
     </row>
     <row r="24">
@@ -1550,13 +1550,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>217619</v>
+        <v>217549</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>228575</v>
+        <v>227921</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>451050</v>
+        <v>448775</v>
       </c>
     </row>
     <row r="27">
@@ -1567,13 +1567,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>238203</v>
+        <v>237882</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>242638</v>
+        <v>243019</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>475816</v>
+        <v>474858</v>
       </c>
     </row>
     <row r="28">
@@ -1622,13 +1622,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>440575</v>
+        <v>436938</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>488425</v>
+        <v>490063</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>937033</v>
+        <v>943328</v>
       </c>
     </row>
     <row r="31">
@@ -1639,13 +1639,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>492921</v>
+        <v>491216</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>535704</v>
+        <v>537083</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>1011723</v>
+        <v>1013968</v>
       </c>
     </row>
     <row r="32">
@@ -1694,13 +1694,13 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>744364</v>
+        <v>743969</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>761643</v>
+        <v>762279</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>1513525</v>
+        <v>1513345</v>
       </c>
     </row>
     <row r="35">
@@ -1711,13 +1711,13 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>764746</v>
+        <v>764415</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>785389</v>
+        <v>785482</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>1545322</v>
+        <v>1544692</v>
       </c>
     </row>
     <row r="36">
@@ -1766,13 +1766,13 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>2650403</v>
+        <v>2645285</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>2801686</v>
+        <v>2803573</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>5482820</v>
+        <v>5482372</v>
       </c>
     </row>
     <row r="39">
@@ -1783,13 +1783,13 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>2746429</v>
+        <v>2747129</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>2885678</v>
+        <v>2886412</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>5608139</v>
+        <v>5607124</v>
       </c>
     </row>
     <row r="40">
